--- a/test-data/9월_용역자명단_간단.xlsx
+++ b/test-data/9월_용역자명단_간단.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D812D9-79F1-43D2-9A14-93E1D8F59F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DF18B-6C6B-42D0-8561-FA8812D3C98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21645" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="20940" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역자명단" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>순번</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>901234567890</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -574,27 +578,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,43 +606,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -649,40 +656,43 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -693,40 +703,43 @@
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -737,40 +750,43 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -781,36 +797,39 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/test-data/9월_용역자명단_간단.xlsx
+++ b/test-data/9월_용역자명단_간단.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-5001-5001</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>한예진2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>010-5003-5003</t>
+          <t>010-5002-5002</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>한예진2</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>010-5004-5004</t>
+          <t>010-5002-5002</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>010-5005-5005</t>
+          <t>010-5003-5003</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>010-5006-5006</t>
+          <t>010-5003-5003</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>010-5007-5007</t>
+          <t>010-5004-5004</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>010-5008-5008</t>
+          <t>010-5004-5004</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>정선3</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>010-5009-5009</t>
+          <t>010-5005-5005</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>010-5010-5010</t>
+          <t>010-5005-5005</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>010-5011-5011</t>
+          <t>010-5006-5006</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>010-5012-5012</t>
+          <t>010-5006-5006</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>010-5013-5013</t>
+          <t>010-5007-5007</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>010-5014-5014</t>
+          <t>010-5007-5007</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>010-5015-5015</t>
+          <t>010-5008-5008</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>010-5001-5001</t>
+          <t>010-5008-5008</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-5009-5009</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1870,12 +1870,12 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>010-5003-5003</t>
+          <t>010-5009-5009</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>010-5004-5004</t>
+          <t>010-5010-5010</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>010-5005-5005</t>
+          <t>010-5010-5010</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -2095,12 +2095,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>010-5006-5006</t>
+          <t>010-5011-5011</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>010-5007-5007</t>
+          <t>010-5011-5011</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>정선3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>010-5008-5008</t>
+          <t>010-5012-5012</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>010-5009-5009</t>
+          <t>010-5012-5012</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>010-5010-5010</t>
+          <t>010-5013-5013</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>010-5011-5011</t>
+          <t>010-5013-5013</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -2545,12 +2545,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>010-5012-5012</t>
+          <t>010-5014-5014</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2620,12 +2620,12 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>010-5013-5013</t>
+          <t>010-5014-5014</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>010-5014-5014</t>
+          <t>010-5015-5015</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -2845,12 +2845,12 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>박철수2</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>010-5001-5001</t>
+          <t>010-박철00-0000</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>조동현</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-조동00-0000</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2995,12 +2995,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>이순신</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>010-5003-5003</t>
+          <t>010-이순00-0000</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -3070,12 +3070,12 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>이순신</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>010-5004-5004</t>
+          <t>010-이순00-0000</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -3145,12 +3145,12 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>김유신</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>010-5005-5005</t>
+          <t>010-김유00-0000</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>김유신</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>010-5006-5006</t>
+          <t>010-김유00-0000</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>박철수</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>010-5007-5007</t>
+          <t>010-박철00-0000</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -3370,12 +3370,12 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>박철수</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>010-5008-5008</t>
+          <t>010-박철00-0000</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>정선3</t>
+          <t>강민지</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>010-5009-5009</t>
+          <t>010-강민00-0000</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>강민지</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>010-5010-5010</t>
+          <t>010-강민00-0000</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>사장님</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>010-5011-5011</t>
+          <t>010-사장00-0000</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -3670,12 +3670,12 @@
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>사장님</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>010-5012-5012</t>
+          <t>010-사장00-0000</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>김영수</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>010-5013-5013</t>
+          <t>010-김영00-0000</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>이미영</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>010-5014-5014</t>
+          <t>010-3333-3333</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>이미영</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>010-5015-5015</t>
+          <t>010-3333-3333</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">

--- a/test-data/9월_용역자명단_간단.xlsx
+++ b/test-data/9월_용역자명단_간단.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,9 +554,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>900101-1234567</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>600-700-800000</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>한예진</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>최설계</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -565,32 +640,32 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>sep001</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>010-6001-0001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>900101-1234567</t>
+          <t>910202-2234567</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>600-700-800000</t>
+          <t>601-701-800001</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -600,17 +675,17 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>010-5001-5001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>송설계</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>010-9001-0001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -631,7 +706,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -640,52 +715,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>sep002</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>010-6002-0002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>910202-2234567</t>
+          <t>920303-1234567</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>601-701-800001</t>
+          <t>602-702-800002</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>한예진2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>010-5001-5001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>송설계</t>
+          <t>류설계</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>010-9002-0002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -706,7 +781,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -715,32 +790,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>sep003</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>010-6003-0003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>920303-1234567</t>
+          <t>930404-2234567</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>602-702-800002</t>
+          <t>603-703-800003</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -750,17 +825,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>류설계</t>
+          <t>안설계</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>010-9003-0003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
@@ -781,7 +856,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -790,52 +865,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>sep004</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>010-6004-0004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>930404-2234567</t>
+          <t>940505-1234567</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>603-703-800003</t>
+          <t>604-704-800004</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>안설계</t>
+          <t>배설계</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>010-9004-0004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -856,7 +931,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -865,52 +940,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>sep005</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>010-6005-0005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>940505-1234567</t>
+          <t>950606-2234567</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>604-704-800004</t>
+          <t>605-705-800005</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>010-5003-5003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>배설계</t>
+          <t>전설계</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>010-9005-0005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
@@ -931,7 +1006,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -940,52 +1015,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>sep006</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>010-6006-0006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>950606-2234567</t>
+          <t>960707-1234567</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>605-705-800005</t>
+          <t>606-706-800006</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>010-5003-5003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>전설계</t>
+          <t>고설계</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>010-9006-0006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
@@ -1006,7 +1081,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -1015,52 +1090,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>sep007</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>최민수2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>010-6007-0007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>960707-1234567</t>
+          <t>970808-2234567</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>606-706-800006</t>
+          <t>607-707-800007</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>010-5004-5004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>고설계</t>
+          <t>최설계</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>010-9007-0007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
@@ -1081,7 +1156,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -1090,52 +1165,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>sep008</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>010-6008-0008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>970808-2234567</t>
+          <t>980909-1234567</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>607-707-800007</t>
+          <t>608-708-800008</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>010-5004-5004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>송설계</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>010-9008-0008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
@@ -1156,7 +1231,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -1165,52 +1240,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>sep009</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>010-6009-0009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>980909-1234567</t>
+          <t>991010-2234567</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>608-708-800008</t>
+          <t>609-709-800009</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>010-5005-5005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>송설계</t>
+          <t>류설계</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>010-9009-0009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr">
@@ -1231,7 +1306,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -1240,52 +1315,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>sep010</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>안정환2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>010-6010-0010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>991010-2234567</t>
+          <t>901111-1234567</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>609-709-800009</t>
+          <t>610-710-800010</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>010-5005-5005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>류설계</t>
+          <t>안설계</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>010-9010-0010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr">
@@ -1306,7 +1381,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -1315,52 +1390,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>sep011</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>010-6011-0011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>901111-1234567</t>
+          <t>911212-2234567</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>610-710-800010</t>
+          <t>611-711-800011</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>010-5006-5006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>안설계</t>
+          <t>배설계</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>010-9011-0011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
@@ -1381,7 +1456,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -1390,52 +1465,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>sep012</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>010-6012-0012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>911212-2234567</t>
+          <t>920113-1234567</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>611-711-800011</t>
+          <t>612-712-800012</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>010-5006-5006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>배설계</t>
+          <t>전설계</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>010-9012-0012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
@@ -1456,7 +1531,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -1465,52 +1540,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>sep013</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>010-6013-0013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>920113-1234567</t>
+          <t>930214-2234567</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>612-712-800012</t>
+          <t>613-713-800013</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>010-5007-5007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>전설계</t>
+          <t>고설계</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>010-9013-0013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
@@ -1531,7 +1606,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1540,52 +1615,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>sep014</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>최민수3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>010-6014-0014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>930214-2234567</t>
+          <t>940315-1234567</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>613-713-800013</t>
+          <t>614-714-800014</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>010-5007-5007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>고설계</t>
+          <t>최설계</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>010-9014-0014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr">
@@ -1606,7 +1681,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -1615,52 +1690,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>sep015</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>010-6015-0015</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>940315-1234567</t>
+          <t>950416-2234567</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>614-714-800014</t>
+          <t>615-715-800015</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>010-5008-5008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>송설계</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>010-9015-0015</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr">
@@ -1681,7 +1756,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -1690,52 +1765,52 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>sep016</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진3</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>010-6016-0016</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>950416-2234567</t>
+          <t>960517-1234567</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>615-715-800015</t>
+          <t>616-716-800016</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>010-5008-5008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>송설계</t>
+          <t>류설계</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>010-9016-0016</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr">
@@ -1756,7 +1831,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1765,52 +1840,52 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>sep017</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>안정환3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>010-6017-0017</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>960517-1234567</t>
+          <t>970618-2234567</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>616-716-800016</t>
+          <t>617-717-800017</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>010-5009-5009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>류설계</t>
+          <t>안설계</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>010-9017-0017</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M19" s="3" t="inlineStr">
@@ -1831,7 +1906,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
@@ -1840,52 +1915,52 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>sep018</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>010-6018-0018</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>970618-2234567</t>
+          <t>980719-1234567</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>617-717-800017</t>
+          <t>618-718-800018</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>010-5009-5009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>안설계</t>
+          <t>배설계</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>010-9018-0018</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr">
@@ -1906,7 +1981,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
@@ -1915,52 +1990,52 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>sep019</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>010-6019-0019</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>980719-1234567</t>
+          <t>990820-2234567</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>618-718-800018</t>
+          <t>619-719-800019</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>010-5010-5010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>배설계</t>
+          <t>전설계</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>010-9019-0019</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr">
@@ -1981,7 +2056,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
@@ -1990,52 +2065,52 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>sep020</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영3</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>010-6020-0020</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>990820-2234567</t>
+          <t>900921-1234567</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>619-719-800019</t>
+          <t>620-720-800020</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>정선3</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>010-5010-5010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>전설계</t>
+          <t>고설계</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>010-9020-0020</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr">
@@ -2056,7 +2131,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -2065,52 +2140,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>sep021</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>최민수4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>010-6021-0021</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>900921-1234567</t>
+          <t>911022-2234567</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>620-720-800020</t>
+          <t>621-721-800021</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>정선3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>010-5011-5011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>고설계</t>
+          <t>최설계</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>010-9021-0021</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M23" s="3" t="inlineStr">
@@ -2131,7 +2206,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
@@ -2140,52 +2215,52 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>sep022</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인4</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>010-6022-0022</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>911022-2234567</t>
+          <t>921123-1234567</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>621-721-800021</t>
+          <t>622-722-800022</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>010-5011-5011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>송설계</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>010-9022-0022</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr">
@@ -2206,7 +2281,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
@@ -2215,52 +2290,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>sep023</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>010-6023-0023</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>921123-1234567</t>
+          <t>931224-2234567</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>622-722-800022</t>
+          <t>623-723-800023</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>정선3</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>010-5012-5012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>송설계</t>
+          <t>류설계</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>010-9023-0023</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M25" s="3" t="inlineStr">
@@ -2281,7 +2356,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -2290,52 +2365,52 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>sep024</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>안정환4</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>010-6024-0024</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>931224-2234567</t>
+          <t>940125-1234567</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>623-723-800023</t>
+          <t>624-724-800024</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>정선3</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>010-5012-5012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>류설계</t>
+          <t>안설계</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>010-9024-0024</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr">
@@ -2356,7 +2431,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
@@ -2365,52 +2440,52 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>sep025</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>010-6025-0025</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>940125-1234567</t>
+          <t>950226-2234567</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>624-724-800024</t>
+          <t>625-725-800025</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>010-5013-5013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>안설계</t>
+          <t>배설계</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>010-9025-0025</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M27" s="3" t="inlineStr">
@@ -2431,7 +2506,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
@@ -2440,52 +2515,52 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>sep026</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>010-6026-0026</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>950226-2234567</t>
+          <t>960327-1234567</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>625-725-800025</t>
+          <t>626-726-800026</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>010-5013-5013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>배설계</t>
+          <t>전설계</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>010-9026-0026</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr">
@@ -2506,7 +2581,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
@@ -2515,52 +2590,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>sep027</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>010-6027-0027</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>960327-1234567</t>
+          <t>970428-2234567</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>626-726-800026</t>
+          <t>627-727-800027</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>010-5014-5014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>전설계</t>
+          <t>고설계</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>010-9027-0027</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M29" s="3" t="inlineStr">
@@ -2581,7 +2656,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
@@ -2590,52 +2665,52 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>sep028</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>최민수5</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>010-6028-0028</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>970428-2234567</t>
+          <t>980501-1234567</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>627-727-800027</t>
+          <t>628-728-800028</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>010-5014-5014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>고설계</t>
+          <t>최설계</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>010-9028-0028</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr">
@@ -2656,7 +2731,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
@@ -2665,52 +2740,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>sep029</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>010-6029-0029</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>980501-1234567</t>
+          <t>990602-2234567</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>628-728-800028</t>
+          <t>629-729-800029</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>010-5015-5015</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>송설계</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>010-9029-0029</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M31" s="3" t="inlineStr">
@@ -2731,7 +2806,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
@@ -2740,52 +2815,52 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>sep030</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진5</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>010-6030-0030</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>990602-2234567</t>
+          <t>900703-1234567</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>629-729-800029</t>
+          <t>630-730-800030</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>박철수2</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>010-5015-5015</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>송설계</t>
+          <t>류설계</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>010-9030-0030</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr">
@@ -2806,7 +2881,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
@@ -2815,52 +2890,52 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>sep031</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>안정환5</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>010-6031-0031</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>900703-1234567</t>
+          <t>910804-2234567</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>630-730-800030</t>
+          <t>631-731-800031</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>박철수2</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>010-박철00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>류설계</t>
+          <t>안설계</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>010-9031-0031</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M33" s="3" t="inlineStr">
@@ -2881,7 +2956,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
@@ -2890,52 +2965,52 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>sep032</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준5</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>010-6032-0032</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>910804-2234567</t>
+          <t>920905-1234567</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>631-731-800031</t>
+          <t>632-732-800032</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>조동현</t>
+          <t>한예진2</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>010-조동00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>안설계</t>
+          <t>배설계</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>010-9032-0032</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M34" s="3" t="inlineStr">
@@ -2956,7 +3031,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
@@ -2965,52 +3040,52 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>sep033</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현5</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>010-6033-0033</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>920905-1234567</t>
+          <t>931006-2234567</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>632-732-800032</t>
+          <t>633-733-800033</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>이순신</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>010-이순00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>배설계</t>
+          <t>전설계</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>010-9033-0033</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M35" s="3" t="inlineStr">
@@ -3031,7 +3106,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
@@ -3040,52 +3115,52 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>sep034</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영5</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>010-6034-0034</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>931006-2234567</t>
+          <t>941107-1234567</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>633-733-800033</t>
+          <t>634-734-800034</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>이순신</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>010-이순00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>전설계</t>
+          <t>고설계</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>010-9034-0034</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M36" s="3" t="inlineStr">
@@ -3106,7 +3181,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
@@ -3115,52 +3190,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>sep035</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>최민수6</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>010-6035-0035</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>941107-1234567</t>
+          <t>951208-2234567</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>634-734-800034</t>
+          <t>635-735-800035</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>김유신</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>010-김유00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>고설계</t>
+          <t>최설계</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>010-9035-0035</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M37" s="3" t="inlineStr">
@@ -3181,7 +3256,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
@@ -3190,52 +3265,52 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>sep036</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인6</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>010-6036-0036</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>951208-2234567</t>
+          <t>960109-1234567</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>635-735-800035</t>
+          <t>636-736-800036</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>김유신</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>010-김유00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>송설계</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>010-9036-0036</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M38" s="3" t="inlineStr">
@@ -3256,7 +3331,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
@@ -3265,52 +3340,52 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>sep037</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>010-6037-0037</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>960109-1234567</t>
+          <t>970210-2234567</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>636-736-800036</t>
+          <t>637-737-800037</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>박철수</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>010-박철00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>송설계</t>
+          <t>류설계</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>010-9037-0037</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M39" s="3" t="inlineStr">
@@ -3331,7 +3406,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
@@ -3340,52 +3415,52 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>sep038</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>안정환6</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>010-6038-0038</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>970210-2234567</t>
+          <t>980311-1234567</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>637-737-800037</t>
+          <t>638-738-800038</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>박철수</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>010-박철00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>류설계</t>
+          <t>안설계</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>010-9038-0038</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M40" s="3" t="inlineStr">
@@ -3406,7 +3481,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
@@ -3415,52 +3490,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>sep039</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준6</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>010-6039-0039</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>980311-1234567</t>
+          <t>990412-2234567</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>638-738-800038</t>
+          <t>639-739-800039</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>강민지</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>010-강민00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>안설계</t>
+          <t>배설계</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>010-9039-0039</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M41" s="3" t="inlineStr">
@@ -3481,7 +3556,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
@@ -3490,52 +3565,52 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>sep040</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현6</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>010-6040-0040</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>990412-2234567</t>
+          <t>900513-1234567</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>639-739-800039</t>
+          <t>640-740-800040</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>강민지</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>010-강민00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>배설계</t>
+          <t>전설계</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>010-9040-0040</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M42" s="3" t="inlineStr">
@@ -3556,7 +3631,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
@@ -3565,52 +3640,52 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>sep041</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영6</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>010-6041-0041</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>900513-1234567</t>
+          <t>910614-2234567</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>640-740-800040</t>
+          <t>641-741-800041</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>사장님</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>010-사장00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>전설계</t>
+          <t>고설계</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>010-9041-0041</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M43" s="3" t="inlineStr">
@@ -3631,7 +3706,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
@@ -3640,52 +3715,52 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>sep042</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>최민수7</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>010-6042-0042</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>910614-2234567</t>
+          <t>920715-1234567</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>641-741-800041</t>
+          <t>642-742-800042</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>사장님</t>
+          <t>정선3</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>010-사장00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>고설계</t>
+          <t>최설계</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>010-9042-0042</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M44" s="3" t="inlineStr">
@@ -3706,7 +3781,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
@@ -3715,52 +3790,52 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>sep043</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인7</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>010-6043-0043</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>920715-1234567</t>
+          <t>930816-2234567</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>642-742-800042</t>
+          <t>643-743-800043</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>김영수</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>010-김영00-0000</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>송설계</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>010-9043-0043</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M45" s="3" t="inlineStr">
@@ -3781,7 +3856,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
@@ -3790,52 +3865,52 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>sep044</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진7</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>010-6044-0044</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>930816-2234567</t>
+          <t>940917-1234567</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>643-743-800043</t>
+          <t>644-744-800044</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>이미영</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>010-3333-3333</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>송설계</t>
+          <t>류설계</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>010-9044-0044</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M46" s="3" t="inlineStr">
@@ -3851,81 +3926,6 @@
       <c r="O46" s="2" t="inlineStr">
         <is>
           <t>종로지점</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>2025-09</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>sep045</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>류현진</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>010-6045-0045</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>940917-1234567</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>KB국민은행</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>644-744-800044</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>이미영</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>010-3333-3333</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>류설계</t>
-        </is>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>010-9045-0045</t>
-        </is>
-      </c>
-      <c r="M47" s="3" t="inlineStr">
-        <is>
-          <t>삼성화재 실손보험</t>
-        </is>
-      </c>
-      <c r="N47" s="2" t="inlineStr">
-        <is>
-          <t>삼성화재</t>
-        </is>
-      </c>
-      <c r="O47" s="2" t="inlineStr">
-        <is>
-          <t>강남지점</t>
         </is>
       </c>
     </row>

--- a/test-data/9월_용역자명단_간단.xlsx
+++ b/test-data/9월_용역자명단_간단.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>정선3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>정선3</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>정선3</t>
+          <t>박철수2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>박철수2</t>
+          <t>정선3</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">

--- a/test-data/9월_용역자명단_간단.xlsx
+++ b/test-data/9월_용역자명단_간단.xlsx
@@ -436,7 +436,7 @@
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="19.2" customWidth="1" min="6" max="6"/>
@@ -446,9 +446,9 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="7.199999999999999" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="8.4" customWidth="1" min="13" max="13"/>
-    <col width="7.199999999999999" customWidth="1" min="14" max="14"/>
-    <col width="10.8" customWidth="1" min="15" max="15"/>
+    <col width="22.8" customWidth="1" min="13" max="13"/>
+    <col width="9.6" customWidth="1" min="14" max="14"/>
+    <col width="7.199999999999999" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -569,7 +569,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>박철수2</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -587,11 +587,19 @@
           <t>010-8749-8727</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -606,14 +614,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>최민수2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>최민수2</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>010-2148-3132</t>
@@ -636,7 +644,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>윤서준3</t>
+          <t>윤서준2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -654,11 +662,19 @@
           <t>010-8772-8756</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -673,14 +689,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>최민수3</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>최민수3</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>010-2155-3145</t>
@@ -703,7 +719,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -721,11 +737,19 @@
           <t>010-8795-8785</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -740,14 +764,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>최민수4</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>최민수4</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>010-2162-3158</t>
@@ -770,7 +794,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>박철수4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -788,11 +812,19 @@
           <t>010-8818-8814</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -807,14 +839,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>최민수5</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>최민수5</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>010-2169-3171</t>
@@ -837,7 +869,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>윤서준2</t>
+          <t>한예진2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -855,11 +887,19 @@
           <t>010-8841-8843</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -874,14 +914,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>최민수6</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>최민수6</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>010-2176-3184</t>
@@ -922,11 +962,19 @@
           <t>010-8864-8872</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -971,7 +1019,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>최민수3</t>
+          <t>최민수5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -989,11 +1037,19 @@
           <t>010-8887-8901</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -1008,14 +1064,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>송가인</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>송가인2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>송가인2</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>010-2190-3210</t>
@@ -1038,7 +1094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>윤서준3</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1056,11 +1112,19 @@
           <t>010-8910-8930</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -1075,14 +1139,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>송가인</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>송가인3</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>송가인3</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>010-2197-3223</t>
@@ -1105,7 +1169,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>송가인2</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1123,11 +1187,19 @@
           <t>010-8933-8959</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -1142,14 +1214,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>송가인</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>송가인4</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>송가인4</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>010-2204-3236</t>
@@ -1172,7 +1244,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>최민수6</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1190,11 +1262,19 @@
           <t>010-8956-8988</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -1209,14 +1289,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>송가인</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>송가인5</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>송가인5</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>010-2211-3249</t>
@@ -1239,7 +1319,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>송가인4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1257,11 +1337,19 @@
           <t>010-8979-9017</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1394,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>윤서준</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1324,11 +1412,19 @@
           <t>010-9002-9046</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -1343,14 +1439,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>류현진</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>류현진2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>류현진2</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>010-2225-3275</t>
@@ -1373,7 +1469,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>최민수2</t>
+          <t>송가인5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1391,11 +1487,19 @@
           <t>010-9025-9075</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -1410,14 +1514,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>류현진</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>류현진3</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>류현진3</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>010-2232-3288</t>
@@ -1440,7 +1544,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>최민수5</t>
+          <t>류현진2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1458,11 +1562,19 @@
           <t>010-9048-9104</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -1477,14 +1589,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>류현진</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>류현진4</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>류현진4</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>010-2239-3301</t>
@@ -1525,11 +1637,19 @@
           <t>010-9071-9133</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -1544,14 +1664,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>류현진</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>류현진5</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>류현진5</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>010-2246-3314</t>
@@ -1574,7 +1694,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>김유신</t>
+          <t>송가인3</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1592,11 +1712,19 @@
           <t>010-9094-9162</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1769,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>류현진2</t>
+          <t>최민수3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1659,11 +1787,19 @@
           <t>010-9117-9191</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1814,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>안정환</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>안정환2</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>안정환2</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>010-2260-3340</t>
@@ -1708,7 +1844,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>송가인4</t>
+          <t>송가인3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1726,11 +1862,19 @@
           <t>010-9140-9220</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -1745,14 +1889,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>안정환</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>안정환3</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>안정환3</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>010-2267-3353</t>
@@ -1775,7 +1919,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>윤서준</t>
+          <t>송가인2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1793,11 +1937,19 @@
           <t>010-9163-9249</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -1812,14 +1964,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>안정환</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>안정환4</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>안정환4</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>010-2274-3366</t>
@@ -1842,7 +1994,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1860,11 +2012,19 @@
           <t>010-9186-9278</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -1879,14 +2039,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>안정환</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>안정환5</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>안정환5</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>010-2281-3379</t>
@@ -1909,7 +2069,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>박철수3</t>
+          <t>최민수3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1927,11 +2087,19 @@
           <t>010-9209-9307</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -1976,7 +2144,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>안정환3</t>
+          <t>류현진3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1994,11 +2162,19 @@
           <t>010-9232-9336</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -2013,14 +2189,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>배용준</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>배용준2</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>배용준2</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>010-2295-3405</t>
@@ -2043,7 +2219,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>안정환2</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2061,11 +2237,19 @@
           <t>010-9255-9365</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -2080,14 +2264,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>배용준</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>배용준3</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>배용준3</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>010-2302-3418</t>
@@ -2110,7 +2294,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>배용준2</t>
+          <t>안정환4</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2128,11 +2312,19 @@
           <t>010-9278-9394</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -2147,14 +2339,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>배용준</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>배용준4</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>배용준4</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>010-2309-3431</t>
@@ -2177,7 +2369,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>송가인3</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2195,11 +2387,19 @@
           <t>010-9301-9423</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2444,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>배용준4</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2262,11 +2462,19 @@
           <t>010-9324-9452</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -2281,14 +2489,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>전지현</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>전지현2</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>전지현2</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>010-2323-3457</t>
@@ -2311,7 +2519,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>류현진5</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2329,11 +2537,19 @@
           <t>010-9347-9481</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -2348,14 +2564,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>전지현</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>전지현3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>전지현3</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>010-2330-3470</t>
@@ -2378,7 +2594,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>송가인2</t>
+          <t>안정환3</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2396,11 +2612,19 @@
           <t>010-9370-9510</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -2415,14 +2639,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>전지현</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>전지현4</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>전지현4</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>010-2337-3483</t>
@@ -2445,7 +2669,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>배용준4</t>
+          <t>안정환5</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2463,11 +2687,19 @@
           <t>010-9393-9539</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2744,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>안정환5</t>
+          <t>류현진2</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2530,11 +2762,19 @@
           <t>010-9416-9568</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -2549,14 +2789,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>고소영</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>고소영2</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>고소영2</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>010-2351-3509</t>
@@ -2579,7 +2819,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>배용준4</t>
+          <t>전지현3</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2597,11 +2837,19 @@
           <t>010-9439-9597</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -2616,14 +2864,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>고소영</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>고소영3</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>고소영3</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>010-2358-3522</t>
@@ -2646,7 +2894,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>배용준3</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2664,11 +2912,19 @@
           <t>010-9462-9626</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -2683,14 +2939,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>고소영</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>고소영4</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>고소영4</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>010-2365-3535</t>
@@ -2713,7 +2969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>윤서준3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2731,11 +2987,19 @@
           <t>010-9485-9655</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -2780,7 +3044,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>전지현3</t>
+          <t>강민지</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2798,11 +3062,19 @@
           <t>010-9508-9684</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -2817,14 +3089,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>김하늘</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>김하늘2</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>김하늘2</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>010-2379-3561</t>
@@ -2847,7 +3119,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>고소영3</t>
+          <t>최민수6</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2865,11 +3137,19 @@
           <t>010-9531-9713</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -2884,14 +3164,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>김하늘</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>김하늘3</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>김하늘3</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>010-2386-3574</t>
@@ -2914,7 +3194,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>고소영2</t>
+          <t>배용준3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2932,11 +3212,19 @@
           <t>010-9554-9742</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -2951,14 +3239,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>김하늘</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>김하늘4</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>김하늘4</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>010-2393-3587</t>
@@ -2981,7 +3269,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>고소영3</t>
+          <t>고소영4</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2999,11 +3287,19 @@
           <t>010-9577-9771</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3344,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3066,11 +3362,19 @@
           <t>010-9600-9800</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -3085,14 +3389,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>이나영</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>이나영2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>이나영2</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>010-2407-3613</t>
@@ -3115,7 +3419,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3133,11 +3437,19 @@
           <t>010-9623-9829</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -3152,14 +3464,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>이나영</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>이나영3</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>이나영3</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>010-2414-3626</t>
@@ -3182,7 +3494,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>안정환4</t>
+          <t>김하늘3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3200,11 +3512,19 @@
           <t>010-9646-9858</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -3219,14 +3539,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>이나영</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>이나영4</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>이나영4</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>010-2421-3639</t>
@@ -3249,7 +3569,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>전지현4</t>
+          <t>이나영</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3267,11 +3587,19 @@
           <t>010-9669-9887</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3644,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>김하늘</t>
+          <t>안정환2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3334,11 +3662,19 @@
           <t>010-9692-9916</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -3353,14 +3689,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>한지민</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>한지민2</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>한지민2</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>010-2435-3665</t>
@@ -3383,7 +3719,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>송가인2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3401,11 +3737,19 @@
           <t>010-9715-9945</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -3420,14 +3764,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>한지민</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>한지민3</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>한지민3</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>010-2442-3678</t>
@@ -3450,7 +3794,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>이나영3</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3468,11 +3812,19 @@
           <t>010-9738-9974</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -3487,14 +3839,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>한지민</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>한지민4</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>한지민4</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>010-2449-3691</t>
@@ -3517,7 +3869,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>이나영3</t>
+          <t>최민수2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3535,11 +3887,19 @@
           <t>010-9761-4003</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
